--- a/project/output/informe_de_calidad.xlsx
+++ b/project/output/informe_de_calidad.xlsx
@@ -600,7 +600,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>fecha_invalidasatisf_fuera_rango</t>
+          <t>fecha_invalida;satisf_fuera_rango</t>
         </is>
       </c>
       <c r="B3" t="n">
